--- a/Symphony/2021/January/All Deails/31.01.2021/MCBank Statement Jan-2021.xlsx
+++ b/Symphony/2021/January/All Deails/31.01.2021/MCBank Statement Jan-2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\January\All Deails\31.01.2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2021" sheetId="7" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Sheet1" sheetId="16" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="17" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +39,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0">
+    <comment ref="R9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -227,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +338,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -381,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="0">
+    <comment ref="S9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D13" authorId="0">
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="F20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -574,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0">
+    <comment ref="D27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -598,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0">
+    <comment ref="I27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1352,9 +1357,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -2616,14 +2621,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -3470,12 +3475,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3486,45 +3530,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3696,7 +3701,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3708,7 +3713,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3731,14 +3736,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3826,7 +3831,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3838,7 +3843,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3861,14 +3866,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3900,7 +3905,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3912,7 +3917,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3935,14 +3940,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4053,7 +4058,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4085,9 +4090,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4119,6 +4125,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4294,7 +4301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -5515,7 +5522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5534,73 +5541,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="295"/>
-      <c r="R1" s="295"/>
-      <c r="S1" s="295"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
     </row>
     <row r="2" spans="1:26" s="200" customFormat="1" ht="18">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="296"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="290"/>
+      <c r="R2" s="290"/>
+      <c r="S2" s="290"/>
     </row>
     <row r="3" spans="1:26" s="201" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="298"/>
-      <c r="S3" s="299"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="293"/>
       <c r="U3" s="115"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -5609,58 +5616,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="203" customFormat="1">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="294" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="289" t="s">
+      <c r="D4" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="298" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="289" t="s">
+      <c r="F4" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="289" t="s">
+      <c r="G4" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="289" t="s">
+      <c r="H4" s="298" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="289" t="s">
+      <c r="I4" s="298" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="289" t="s">
+      <c r="J4" s="298" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="289" t="s">
+      <c r="K4" s="298" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="289" t="s">
+      <c r="L4" s="298" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="289" t="s">
+      <c r="M4" s="298" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="289" t="s">
+      <c r="N4" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="291" t="s">
+      <c r="O4" s="304" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="293" t="s">
+      <c r="P4" s="306" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="306" t="s">
+      <c r="Q4" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="304" t="s">
+      <c r="R4" s="300" t="s">
         <v>110</v>
       </c>
       <c r="S4" s="202" t="s">
@@ -5673,24 +5680,24 @@
       <c r="Y4" s="205"/>
     </row>
     <row r="5" spans="1:26" s="203" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="301"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="290"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="307"/>
-      <c r="R5" s="305"/>
+      <c r="A5" s="295"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="307"/>
+      <c r="Q5" s="303"/>
+      <c r="R5" s="301"/>
       <c r="S5" s="207" t="s">
         <v>111</v>
       </c>
@@ -8993,6 +9000,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -9009,11 +9021,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9023,11 +9030,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20688,7 +20695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -26411,10 +26418,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+    <sheetView topLeftCell="E30" workbookViewId="0">
       <selection activeCell="V43" sqref="V43"/>
     </sheetView>
   </sheetViews>
@@ -26428,76 +26435,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="295"/>
-      <c r="R1" s="295"/>
-      <c r="S1" s="295"/>
-      <c r="T1" s="295"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
+      <c r="Q1" s="289"/>
+      <c r="R1" s="289"/>
+      <c r="S1" s="289"/>
+      <c r="T1" s="289"/>
     </row>
     <row r="2" spans="1:27" s="200" customFormat="1" ht="18">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296"/>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="296"/>
-      <c r="P2" s="296"/>
-      <c r="Q2" s="296"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="296"/>
-      <c r="T2" s="296"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="290"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="290"/>
+      <c r="R2" s="290"/>
+      <c r="S2" s="290"/>
+      <c r="T2" s="290"/>
     </row>
     <row r="3" spans="1:27" s="201" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="291" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="298"/>
-      <c r="N3" s="298"/>
-      <c r="O3" s="298"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="298"/>
-      <c r="S3" s="298"/>
-      <c r="T3" s="299"/>
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="292"/>
+      <c r="N3" s="292"/>
+      <c r="O3" s="292"/>
+      <c r="P3" s="292"/>
+      <c r="Q3" s="292"/>
+      <c r="R3" s="292"/>
+      <c r="S3" s="292"/>
+      <c r="T3" s="293"/>
       <c r="V3" s="115"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
@@ -26506,61 +26513,61 @@
       <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="1:27" s="203" customFormat="1">
-      <c r="A4" s="300" t="s">
+      <c r="A4" s="294" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="296" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="289" t="s">
+      <c r="C4" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="289" t="s">
+      <c r="D4" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="289" t="s">
+      <c r="E4" s="298" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="289" t="s">
+      <c r="F4" s="298" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="289" t="s">
+      <c r="G4" s="298" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="289" t="s">
+      <c r="H4" s="298" t="s">
         <v>235</v>
       </c>
-      <c r="I4" s="289" t="s">
+      <c r="I4" s="298" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="289" t="s">
+      <c r="J4" s="298" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="289" t="s">
+      <c r="K4" s="298" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="289" t="s">
+      <c r="L4" s="298" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="289" t="s">
+      <c r="M4" s="298" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="289" t="s">
+      <c r="N4" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="291" t="s">
+      <c r="O4" s="304" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="293" t="s">
+      <c r="P4" s="306" t="s">
         <v>238</v>
       </c>
-      <c r="Q4" s="306" t="s">
+      <c r="Q4" s="302" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="332" t="s">
         <v>239</v>
       </c>
-      <c r="S4" s="304" t="s">
+      <c r="S4" s="300" t="s">
         <v>237</v>
       </c>
       <c r="T4" s="202" t="s">
@@ -26573,25 +26580,25 @@
       <c r="Z4" s="205"/>
     </row>
     <row r="5" spans="1:27" s="203" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="301"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="290"/>
-      <c r="H5" s="290"/>
-      <c r="I5" s="290"/>
-      <c r="J5" s="290"/>
-      <c r="K5" s="290"/>
-      <c r="L5" s="290"/>
-      <c r="M5" s="290"/>
-      <c r="N5" s="290"/>
-      <c r="O5" s="292"/>
-      <c r="P5" s="294"/>
-      <c r="Q5" s="307"/>
+      <c r="A5" s="295"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="307"/>
+      <c r="Q5" s="303"/>
       <c r="R5" s="333"/>
-      <c r="S5" s="305"/>
+      <c r="S5" s="301"/>
       <c r="T5" s="207" t="s">
         <v>111</v>
       </c>
@@ -29934,17 +29941,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
@@ -29956,6 +29952,17 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R4:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29964,7 +29971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
